--- a/query-result.xlsx
+++ b/query-result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hsato\Dropbox\test\dwh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hsatoctr/git/dwhbench/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6735786E-22F6-48A1-B3DF-F1AEA7BF12E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE6FF27-6087-C740-9C2D-AF726645E5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23412" yWindow="4884" windowWidth="36552" windowHeight="18600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10360" yWindow="2840" windowWidth="36000" windowHeight="21260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="74">
   <si>
     <t xml:space="preserve"> Intel(R) Core(TM) i7-11700 @ 2.50GHz Windows 10 19042.1202 DDR4-3200</t>
   </si>
@@ -339,6 +339,18 @@
     <t>AMD Ryzen 9 7900 3.7GHz 32GB Windows 11 22621.525  DDR5-4800</t>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>MacBook Pro 14inch.2023 M3 MAX 36GB MacOS Sonoma</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>IRIS 2024.1</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>14 Core CPU 30 Core GPU</t>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
@@ -347,7 +359,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -741,22 +753,22 @@
   <sheetPr codeName="シート1">
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.796875" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="86.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.5546875" customWidth="1"/>
+    <col min="1" max="1" width="86.3984375" customWidth="1"/>
+    <col min="2" max="2" width="15.3984375" customWidth="1"/>
+    <col min="3" max="4" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.59765625" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -773,7 +785,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>40</v>
       </c>
@@ -790,7 +802,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -809,7 +821,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>50</v>
       </c>
@@ -828,7 +840,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
@@ -849,7 +861,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
@@ -870,7 +882,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
@@ -891,7 +903,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>36</v>
       </c>
@@ -912,7 +924,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -931,7 +943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
         <v>39</v>
       </c>
@@ -948,7 +960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -968,7 +980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
@@ -988,7 +1000,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="5" t="s">
         <v>55</v>
       </c>
@@ -1008,7 +1020,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -1028,7 +1040,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
         <v>36</v>
       </c>
@@ -1049,7 +1061,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
         <v>38</v>
       </c>
@@ -1072,7 +1084,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="3" t="s">
         <v>54</v>
       </c>
@@ -1095,7 +1107,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="5" t="s">
         <v>56</v>
       </c>
@@ -1118,7 +1130,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="3" t="s">
         <v>70</v>
       </c>
@@ -1141,7 +1153,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="3" t="s">
         <v>68</v>
       </c>
@@ -1164,42 +1176,78 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="E22" s="2" t="s">
+    <row r="21" spans="1:8">
+      <c r="A21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1.0671999999999999</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.16170000000000001</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.1245</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="E25" s="4"/>
+      <c r="F25" s="2"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="50" spans="5:8">
+      <c r="E50" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="E23" s="2" t="s">
+    <row r="51" spans="5:8">
+      <c r="E51" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="E24" s="2" t="s">
+    <row r="52" spans="5:8">
+      <c r="E52" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="E25" s="4" t="s">
+    <row r="53" spans="5:8">
+      <c r="E53" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H53" s="1" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1225,14 +1273,14 @@
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.796875" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="77" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.3984375" customWidth="1"/>
     <col min="6" max="6" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -1249,7 +1297,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -1272,7 +1320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -1295,7 +1343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1318,7 +1366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>37</v>
       </c>
@@ -1341,7 +1389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>36</v>
       </c>
@@ -1364,7 +1412,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
@@ -1383,7 +1431,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>49</v>
       </c>
@@ -1402,7 +1450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>41</v>
       </c>
@@ -1419,7 +1467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
         <v>39</v>
       </c>
@@ -1436,7 +1484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1459,7 +1507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="F15" s="2" t="s">
         <v>7</v>
       </c>
@@ -1467,7 +1515,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="17" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:6">
       <c r="E17" s="2" t="s">
         <v>45</v>
       </c>
@@ -1475,7 +1523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:6">
       <c r="E18" s="2" t="s">
         <v>44</v>
       </c>
@@ -1483,7 +1531,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:6">
       <c r="E19" s="2" t="s">
         <v>47</v>
       </c>
@@ -1491,7 +1539,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:6">
       <c r="E20" s="2" t="s">
         <v>43</v>
       </c>

--- a/query-result.xlsx
+++ b/query-result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hsatoctr/git/dwhbench/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\dwhbench\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE6FF27-6087-C740-9C2D-AF726645E5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436F17E6-F1AC-4D25-81A1-83399DA13C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10360" yWindow="2840" windowWidth="36000" windowHeight="21260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9396" yWindow="5160" windowWidth="34560" windowHeight="18552" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="77">
   <si>
     <t xml:space="preserve"> Intel(R) Core(TM) i7-11700 @ 2.50GHz Windows 10 19042.1202 DDR4-3200</t>
   </si>
@@ -351,6 +351,27 @@
     <t>14 Core CPU 30 Core GPU</t>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>AMD Ryzen 9 9950X 4.3GHz Widnows 11 26100.3476 DDR-5600 32GB</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>IRIS 2025.1</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Test 3はポータルから実施するとエラーとなるので、ターミナルで実行する必要がある</t>
+    <rPh sb="13" eb="15">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
@@ -359,7 +380,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -433,7 +454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -441,6 +462,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -755,20 +777,20 @@
   </sheetPr>
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.796875" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="86.3984375" customWidth="1"/>
-    <col min="2" max="2" width="15.3984375" customWidth="1"/>
-    <col min="3" max="4" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.59765625" customWidth="1"/>
+    <col min="1" max="1" width="86.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.5546875" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -785,7 +807,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>40</v>
       </c>
@@ -802,7 +824,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -821,7 +843,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>50</v>
       </c>
@@ -840,7 +862,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
@@ -861,7 +883,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
@@ -882,7 +904,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
@@ -903,7 +925,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>36</v>
       </c>
@@ -924,7 +946,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -943,7 +965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>39</v>
       </c>
@@ -960,7 +982,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -980,7 +1002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
@@ -1000,7 +1022,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>55</v>
       </c>
@@ -1020,7 +1042,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -1040,7 +1062,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>36</v>
       </c>
@@ -1061,7 +1083,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>38</v>
       </c>
@@ -1084,7 +1106,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>54</v>
       </c>
@@ -1107,7 +1129,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>56</v>
       </c>
@@ -1130,7 +1152,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>70</v>
       </c>
@@ -1153,7 +1175,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>68</v>
       </c>
@@ -1176,7 +1198,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>71</v>
       </c>
@@ -1199,24 +1221,43 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:8">
+    <row r="22" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.91369999999999996</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.1125</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.1007</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E25" s="4"/>
       <c r="F25" s="2"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="50" spans="5:8">
+    <row r="50" spans="5:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E50" s="2" t="s">
         <v>45</v>
       </c>
@@ -1224,7 +1265,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="5:8">
+    <row r="51" spans="5:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E51" s="2" t="s">
         <v>44</v>
       </c>
@@ -1232,15 +1273,18 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="5:8">
+    <row r="52" spans="5:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E52" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="53" spans="5:8">
+      <c r="H52" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="5:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E53" s="4" t="s">
         <v>57</v>
       </c>
@@ -1273,14 +1317,14 @@
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.796875" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="77" customWidth="1"/>
-    <col min="2" max="2" width="15.3984375" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
     <col min="6" max="6" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -1297,7 +1341,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -1320,7 +1364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -1343,7 +1387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1366,7 +1410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>37</v>
       </c>
@@ -1389,7 +1433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>36</v>
       </c>
@@ -1412,7 +1456,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
@@ -1431,7 +1475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>49</v>
       </c>
@@ -1450,7 +1494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>41</v>
       </c>
@@ -1467,7 +1511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>39</v>
       </c>
@@ -1484,7 +1528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1507,7 +1551,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="F15" s="2" t="s">
         <v>7</v>
       </c>
@@ -1515,7 +1559,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="17" spans="5:6">
+    <row r="17" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E17" s="2" t="s">
         <v>45</v>
       </c>
@@ -1523,7 +1567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="5:6">
+    <row r="18" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E18" s="2" t="s">
         <v>44</v>
       </c>
@@ -1531,7 +1575,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="5:6">
+    <row r="19" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E19" s="2" t="s">
         <v>47</v>
       </c>
@@ -1539,7 +1583,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="5:6">
+    <row r="20" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E20" s="2" t="s">
         <v>43</v>
       </c>
